--- a/Composition by area/Mat_by_Parking_Area.xlsx
+++ b/Composition by area/Mat_by_Parking_Area.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Composition by area\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Composition by area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE69A08-7AC6-4C10-A03F-27212F0DE658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB86CCB7-A14C-4AC5-9BFC-39FCDE3FF2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B2813F8B-546B-4D6F-842D-A117F5F82637}"/>
+    <workbookView xWindow="1020" yWindow="165" windowWidth="23520" windowHeight="19110" xr2:uid="{B2813F8B-546B-4D6F-842D-A117F5F82637}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final_Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Parking_Area" sheetId="2" r:id="rId2"/>
-    <sheet name="Parking_Surface_Share" sheetId="3" r:id="rId3"/>
+    <sheet name="Coversheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Final_Input" sheetId="1" r:id="rId2"/>
+    <sheet name="Parking_Area" sheetId="2" r:id="rId3"/>
+    <sheet name="Parking_Surface_Share" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="197">
   <si>
     <t>country</t>
   </si>
@@ -594,12 +595,64 @@
   <si>
     <t>IMAGE-region</t>
   </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Processed parking infrastructure v.1.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +662,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -657,10 +737,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -669,9 +752,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{C9B2B5B5-BEC6-4F54-AE36-879778FCAE13}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{E5C33D00-F972-49D6-AB79-F35098108FD6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,6 +773,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D808ED82-8D4B-4518-88F1-3B043E31C800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79561A1-F940-44FD-A34B-D95D488F813A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2933,11 +3149,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B16C4-97E7-4E9F-A3F1-79393356173E}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{F1451733-F71E-4605-B09A-7FE4539377D5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0494F69F-259F-45FA-957A-A857A192DEED}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10805,8 +11112,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D0D9F2-4FF8-4E2A-8031-EF2AD0A4F222}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14103,12 +14411,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF965BB3-75A2-4C03-9F13-B61BFD67F751}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
